--- a/cmdlist.xlsx
+++ b/cmdlist.xlsx
@@ -16,15 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>0A00</t>
-  </si>
-  <si>
-    <t>страница 3</t>
-  </si>
-  <si>
-    <t>страница 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>1C00</t>
+  </si>
+  <si>
+    <t>1E00</t>
+  </si>
+  <si>
+    <t>1A00</t>
+  </si>
+  <si>
+    <t>2A00</t>
+  </si>
+  <si>
+    <t>2C00</t>
+  </si>
+  <si>
+    <t>2E00</t>
+  </si>
+  <si>
+    <t>0E00</t>
   </si>
 </sst>
 </file>
@@ -61,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -364,65 +377,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:D16"/>
+  <dimension ref="C5:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>8003</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>8280</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>8003</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>8202</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>8000</v>
-      </c>
-      <c r="D15" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>0</v>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
